--- a/SEM/dataframes/filtered_SEM_df.xlsx
+++ b/SEM/dataframes/filtered_SEM_df.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balin\Documents\GitHub\lendulet_language_SL\SEM\dataframes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kriszti\GitHub\lendulet_language_SL\SEM\dataframes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FB1569-2CA9-48C1-8CDE-989F8570EAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1019,7 +1018,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1830,138 +1829,136 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN609"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AI1" sqref="AI1:AI1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -2071,7 +2068,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -2181,7 +2178,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1004</v>
       </c>
@@ -2291,7 +2288,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1005</v>
       </c>
@@ -2401,7 +2398,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1102</v>
       </c>
@@ -2511,7 +2508,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1103</v>
       </c>
@@ -2618,7 +2615,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1201</v>
       </c>
@@ -2725,7 +2722,7 @@
         <v>1.67816688254607</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1202</v>
       </c>
@@ -2835,7 +2832,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1203</v>
       </c>
@@ -2945,7 +2942,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1204</v>
       </c>
@@ -3055,7 +3052,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1205</v>
       </c>
@@ -3162,7 +3159,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1206</v>
       </c>
@@ -3269,7 +3266,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1207</v>
       </c>
@@ -3379,7 +3376,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1208</v>
       </c>
@@ -3489,7 +3486,7 @@
         <v>1.3107272068695801</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1209</v>
       </c>
@@ -3596,7 +3593,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1210</v>
       </c>
@@ -3706,7 +3703,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1211</v>
       </c>
@@ -3816,7 +3813,7 @@
         <v>-1.9962298477631799</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1212</v>
       </c>
@@ -3926,7 +3923,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1213</v>
       </c>
@@ -4036,7 +4033,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1214</v>
       </c>
@@ -4140,7 +4137,7 @@
         <v>1.3107272068695801</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1303</v>
       </c>
@@ -4250,7 +4247,7 @@
         <v>1.67816688254607</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1305</v>
       </c>
@@ -4357,7 +4354,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1306</v>
       </c>
@@ -4452,7 +4449,7 @@
         <v>-0.52647115167112801</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1307</v>
       </c>
@@ -4556,7 +4553,7 @@
         <v>-0.52647115167112801</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1308</v>
       </c>
@@ -4666,7 +4663,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1309</v>
       </c>
@@ -4776,7 +4773,7 @@
         <v>1.3107272068695801</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1310</v>
       </c>
@@ -4886,7 +4883,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1312</v>
       </c>
@@ -4993,7 +4990,7 @@
         <v>-2.36366951682575</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1313</v>
       </c>
@@ -5103,7 +5100,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1314</v>
       </c>
@@ -5213,7 +5210,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1315</v>
       </c>
@@ -5323,7 +5320,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1316</v>
       </c>
@@ -5433,7 +5430,7 @@
         <v>-1.2613504964102</v>
       </c>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1317</v>
       </c>
@@ -5540,7 +5537,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1318</v>
       </c>
@@ -5650,7 +5647,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1320</v>
       </c>
@@ -5760,7 +5757,7 @@
         <v>-0.52647115167112801</v>
       </c>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1322</v>
       </c>
@@ -5870,7 +5867,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1323</v>
       </c>
@@ -5971,7 +5968,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1324</v>
       </c>
@@ -6081,7 +6078,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1325</v>
       </c>
@@ -6191,7 +6188,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1327</v>
       </c>
@@ -6298,7 +6295,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1328</v>
       </c>
@@ -6408,7 +6405,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1329</v>
       </c>
@@ -6518,7 +6515,7 @@
         <v>1.67816688254607</v>
       </c>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1331</v>
       </c>
@@ -6628,7 +6625,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1332</v>
       </c>
@@ -6738,7 +6735,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1334</v>
       </c>
@@ -6848,7 +6845,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1335</v>
       </c>
@@ -6958,7 +6955,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1336</v>
       </c>
@@ -7062,7 +7059,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1337</v>
       </c>
@@ -7163,7 +7160,7 @@
         <v>-2.36366951682575</v>
       </c>
     </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1338</v>
       </c>
@@ -7273,7 +7270,7 @@
         <v>-1.2613504964102</v>
       </c>
     </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1339</v>
       </c>
@@ -7383,7 +7380,7 @@
         <v>-1.62879017208669</v>
       </c>
     </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1340</v>
       </c>
@@ -7442,7 +7439,7 @@
         <v>0.49391892901168499</v>
       </c>
     </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1341</v>
       </c>
@@ -7552,7 +7549,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1342</v>
       </c>
@@ -7662,7 +7659,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1343</v>
       </c>
@@ -7772,7 +7769,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1345</v>
       </c>
@@ -7879,7 +7876,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1346</v>
       </c>
@@ -7962,7 +7959,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1347</v>
       </c>
@@ -8069,7 +8066,7 @@
         <v>-0.89391082734761895</v>
       </c>
     </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1348</v>
       </c>
@@ -8152,7 +8149,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1349</v>
       </c>
@@ -8259,7 +8256,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1350</v>
       </c>
@@ -8369,7 +8366,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1351</v>
       </c>
@@ -8476,7 +8473,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="63" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1352</v>
       </c>
@@ -8571,7 +8568,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="64" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1353</v>
       </c>
@@ -8681,7 +8678,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="65" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1354</v>
       </c>
@@ -8791,7 +8788,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="66" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1356</v>
       </c>
@@ -8901,7 +8898,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="67" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1357</v>
       </c>
@@ -9011,7 +9008,7 @@
         <v>-0.52647115167112801</v>
       </c>
     </row>
-    <row r="68" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1358</v>
       </c>
@@ -9118,7 +9115,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="69" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1359</v>
       </c>
@@ -9219,7 +9216,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="70" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1360</v>
       </c>
@@ -9326,7 +9323,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="71" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1361</v>
       </c>
@@ -9436,7 +9433,7 @@
         <v>1.3107272068695801</v>
       </c>
     </row>
-    <row r="72" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1362</v>
       </c>
@@ -9546,7 +9543,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="73" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1363</v>
       </c>
@@ -9656,7 +9653,7 @@
         <v>1.3107272068695801</v>
       </c>
     </row>
-    <row r="74" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1364</v>
       </c>
@@ -9751,7 +9748,7 @@
         <v>-3.83342820630389</v>
       </c>
     </row>
-    <row r="75" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1365</v>
       </c>
@@ -9858,7 +9855,7 @@
         <v>-0.52647115167112801</v>
       </c>
     </row>
-    <row r="76" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1367</v>
       </c>
@@ -9968,7 +9965,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="77" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1368</v>
       </c>
@@ -10072,7 +10069,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="78" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1369</v>
       </c>
@@ -10179,7 +10176,7 @@
         <v>-1.2613504964102</v>
       </c>
     </row>
-    <row r="79" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1370</v>
       </c>
@@ -10271,7 +10268,7 @@
         <v>-1.62879017208669</v>
       </c>
     </row>
-    <row r="80" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1371</v>
       </c>
@@ -10381,7 +10378,7 @@
         <v>-1.62879017208669</v>
       </c>
     </row>
-    <row r="81" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1372</v>
       </c>
@@ -10491,7 +10488,7 @@
         <v>1.3107272068695801</v>
       </c>
     </row>
-    <row r="82" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1373</v>
       </c>
@@ -10595,7 +10592,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="83" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1374</v>
       </c>
@@ -10705,7 +10702,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="84" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1375</v>
       </c>
@@ -10815,7 +10812,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="85" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1376</v>
       </c>
@@ -10922,7 +10919,7 @@
         <v>-1.62879017208669</v>
       </c>
     </row>
-    <row r="86" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1377</v>
       </c>
@@ -11029,7 +11026,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="87" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1379</v>
       </c>
@@ -11130,7 +11127,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="88" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1380</v>
       </c>
@@ -11237,7 +11234,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="89" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1382</v>
       </c>
@@ -11344,7 +11341,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="90" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1383</v>
       </c>
@@ -11433,7 +11430,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="91" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1918</v>
       </c>
@@ -11507,7 +11504,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="92" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>2001</v>
       </c>
@@ -11590,7 +11587,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="93" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>2002</v>
       </c>
@@ -11673,7 +11670,7 @@
         <v>-0.89391082734761895</v>
       </c>
     </row>
-    <row r="94" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>2004</v>
       </c>
@@ -11756,7 +11753,7 @@
         <v>-0.52647115167112801</v>
       </c>
     </row>
-    <row r="95" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>2006</v>
       </c>
@@ -11839,7 +11836,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="96" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>2007</v>
       </c>
@@ -11922,7 +11919,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="97" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>2103</v>
       </c>
@@ -12005,7 +12002,7 @@
         <v>1.3107272068695801</v>
       </c>
     </row>
-    <row r="98" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>2201</v>
       </c>
@@ -12088,7 +12085,7 @@
         <v>-0.89391082734761895</v>
       </c>
     </row>
-    <row r="99" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>2202</v>
       </c>
@@ -12165,7 +12162,7 @@
         <v>1.3107272068695801</v>
       </c>
     </row>
-    <row r="100" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>2203</v>
       </c>
@@ -12248,7 +12245,7 @@
         <v>-0.52647115167112801</v>
       </c>
     </row>
-    <row r="101" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>2204</v>
       </c>
@@ -12331,7 +12328,7 @@
         <v>1.3107272068695801</v>
       </c>
     </row>
-    <row r="102" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>2205</v>
       </c>
@@ -12414,7 +12411,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="103" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>2206</v>
       </c>
@@ -12497,7 +12494,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="104" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>2207</v>
       </c>
@@ -12574,7 +12571,7 @@
         <v>1.3107272068695801</v>
       </c>
     </row>
-    <row r="105" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>2208</v>
       </c>
@@ -12657,7 +12654,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="106" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>2210</v>
       </c>
@@ -12740,7 +12737,7 @@
         <v>1.3107272068695801</v>
       </c>
     </row>
-    <row r="107" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>2211</v>
       </c>
@@ -12823,7 +12820,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="108" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>2212</v>
       </c>
@@ -12906,7 +12903,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="109" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>2213</v>
       </c>
@@ -12989,7 +12986,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="110" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>2214</v>
       </c>
@@ -13072,7 +13069,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="111" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>2215</v>
       </c>
@@ -13152,7 +13149,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="112" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>2301</v>
       </c>
@@ -13235,7 +13232,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="113" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>2302</v>
       </c>
@@ -13315,7 +13312,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="114" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>2303</v>
       </c>
@@ -13395,7 +13392,7 @@
         <v>-3.09854886156482</v>
       </c>
     </row>
-    <row r="115" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>2305</v>
       </c>
@@ -13478,7 +13475,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="116" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>2306</v>
       </c>
@@ -13558,7 +13555,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="117" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>2307</v>
       </c>
@@ -13641,7 +13638,7 @@
         <v>1.3107272068695801</v>
       </c>
     </row>
-    <row r="118" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>2308</v>
       </c>
@@ -13724,7 +13721,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="119" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>2309</v>
       </c>
@@ -13831,7 +13828,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="120" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>2310</v>
       </c>
@@ -13914,7 +13911,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="121" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>2311</v>
       </c>
@@ -13997,7 +13994,7 @@
         <v>1.3107272068695801</v>
       </c>
     </row>
-    <row r="122" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>2312</v>
       </c>
@@ -14080,7 +14077,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="123" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>2313</v>
       </c>
@@ -14160,7 +14157,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="124" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>2314</v>
       </c>
@@ -14237,7 +14234,7 @@
         <v>-0.52647115167112801</v>
       </c>
     </row>
-    <row r="125" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>2315</v>
       </c>
@@ -14320,7 +14317,7 @@
         <v>1.3107272068695801</v>
       </c>
     </row>
-    <row r="126" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>2316</v>
       </c>
@@ -14403,7 +14400,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="127" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>2317</v>
       </c>
@@ -14486,7 +14483,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="128" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>2318</v>
       </c>
@@ -14569,7 +14566,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="129" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>2320</v>
       </c>
@@ -14646,7 +14643,7 @@
         <v>-0.52647115167112801</v>
       </c>
     </row>
-    <row r="130" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>2321</v>
       </c>
@@ -14729,7 +14726,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="131" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>2322</v>
       </c>
@@ -14812,7 +14809,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="132" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>2323</v>
       </c>
@@ -14895,7 +14892,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="133" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>2324</v>
       </c>
@@ -14975,7 +14972,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="134" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>2325</v>
       </c>
@@ -15055,7 +15052,7 @@
         <v>-1.2613504964102</v>
       </c>
     </row>
-    <row r="135" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>2326</v>
       </c>
@@ -15138,7 +15135,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="136" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>2327</v>
       </c>
@@ -15215,7 +15212,7 @@
         <v>-1.2613504964102</v>
       </c>
     </row>
-    <row r="137" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>2328</v>
       </c>
@@ -15295,7 +15292,7 @@
         <v>0.47554089190240301</v>
       </c>
     </row>
-    <row r="138" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>2329</v>
       </c>
@@ -15378,7 +15375,7 @@
         <v>1.3107272068695801</v>
       </c>
     </row>
-    <row r="139" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>2330</v>
       </c>
@@ -15461,7 +15458,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="140" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>2331</v>
       </c>
@@ -15544,7 +15541,7 @@
         <v>-0.52647115167112801</v>
       </c>
     </row>
-    <row r="141" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>2332</v>
       </c>
@@ -15624,7 +15621,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="142" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>2333</v>
       </c>
@@ -15707,7 +15704,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="143" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>2334</v>
       </c>
@@ -15784,7 +15781,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="144" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>2335</v>
       </c>
@@ -15864,7 +15861,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="145" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>2336</v>
       </c>
@@ -15944,7 +15941,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="146" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>2337</v>
       </c>
@@ -16027,7 +16024,7 @@
         <v>1.3107272068695801</v>
       </c>
     </row>
-    <row r="147" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>2338</v>
       </c>
@@ -16110,7 +16107,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="148" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>2339</v>
       </c>
@@ -16193,7 +16190,7 @@
         <v>1.3107272068695801</v>
       </c>
     </row>
-    <row r="149" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>2340</v>
       </c>
@@ -16273,7 +16270,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="150" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>2341</v>
       </c>
@@ -16356,7 +16353,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="151" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>2342</v>
       </c>
@@ -16430,7 +16427,7 @@
         <v>-0.52647115167112801</v>
       </c>
     </row>
-    <row r="152" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>2344</v>
       </c>
@@ -16510,7 +16507,7 @@
         <v>1.3107272068695801</v>
       </c>
     </row>
-    <row r="153" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>2345</v>
       </c>
@@ -16593,7 +16590,7 @@
         <v>1.3107272068695801</v>
       </c>
     </row>
-    <row r="154" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>2346</v>
       </c>
@@ -16676,7 +16673,7 @@
         <v>1.3107272068695801</v>
       </c>
     </row>
-    <row r="155" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>2347</v>
       </c>
@@ -16759,7 +16756,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="156" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>2348</v>
       </c>
@@ -16833,7 +16830,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="157" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>2349</v>
       </c>
@@ -16916,7 +16913,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="158" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>2350</v>
       </c>
@@ -16996,7 +16993,7 @@
         <v>-0.11155798910072399</v>
       </c>
     </row>
-    <row r="159" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>2351</v>
       </c>
@@ -17079,7 +17076,7 @@
         <v>-0.52647115167112801</v>
       </c>
     </row>
-    <row r="160" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>2352</v>
       </c>
@@ -17162,7 +17159,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="161" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>2354</v>
       </c>
@@ -17245,7 +17242,7 @@
         <v>1.3107272068695801</v>
       </c>
     </row>
-    <row r="162" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>2356</v>
       </c>
@@ -17325,7 +17322,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="163" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>2357</v>
       </c>
@@ -17405,7 +17402,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="164" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>2358</v>
       </c>
@@ -17488,7 +17485,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="165" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>2359</v>
       </c>
@@ -17571,7 +17568,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="166" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>2360</v>
       </c>
@@ -17654,7 +17651,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="167" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>2361</v>
       </c>
@@ -17731,7 +17728,7 @@
         <v>-1.62879017208669</v>
       </c>
     </row>
-    <row r="168" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>2362</v>
       </c>
@@ -17814,7 +17811,7 @@
         <v>-0.52647115167112801</v>
       </c>
     </row>
-    <row r="169" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>2363</v>
       </c>
@@ -17897,7 +17894,7 @@
         <v>1.3107272068695801</v>
       </c>
     </row>
-    <row r="170" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>2364</v>
       </c>
@@ -17980,7 +17977,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="171" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>2365</v>
       </c>
@@ -18063,7 +18060,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="172" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>2367</v>
       </c>
@@ -18146,7 +18143,7 @@
         <v>-0.89391082734761895</v>
       </c>
     </row>
-    <row r="173" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>2368</v>
       </c>
@@ -18229,7 +18226,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="174" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>2369</v>
       </c>
@@ -18312,7 +18309,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="175" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>2370</v>
       </c>
@@ -18395,7 +18392,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="176" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>2371</v>
       </c>
@@ -18475,7 +18472,7 @@
         <v>-0.69865687010385102</v>
       </c>
     </row>
-    <row r="177" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>2372</v>
       </c>
@@ -18558,7 +18555,7 @@
         <v>1.67816688254607</v>
       </c>
     </row>
-    <row r="178" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>2373</v>
       </c>
@@ -18641,7 +18638,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="179" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>2374</v>
       </c>
@@ -18718,7 +18715,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="180" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>2375</v>
       </c>
@@ -18798,7 +18795,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="181" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>2376</v>
       </c>
@@ -18881,7 +18878,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="182" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>2377</v>
       </c>
@@ -18961,7 +18958,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="183" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>2378</v>
       </c>
@@ -19041,7 +19038,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="184" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>2380</v>
       </c>
@@ -19124,7 +19121,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="185" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>2381</v>
       </c>
@@ -19207,7 +19204,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="186" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>3001</v>
       </c>
@@ -19296,7 +19293,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="187" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>3002</v>
       </c>
@@ -19391,7 +19388,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="188" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>3003</v>
       </c>
@@ -19486,7 +19483,7 @@
         <v>-0.52647115167112801</v>
       </c>
     </row>
-    <row r="189" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>3004</v>
       </c>
@@ -19581,7 +19578,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="190" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>3005</v>
       </c>
@@ -19676,7 +19673,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="191" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>3006</v>
       </c>
@@ -19771,7 +19768,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="192" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>3007</v>
       </c>
@@ -19863,7 +19860,7 @@
         <v>1.67816688254607</v>
       </c>
     </row>
-    <row r="193" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>3102</v>
       </c>
@@ -19982,7 +19979,7 @@
         <v>-0.89391082734761895</v>
       </c>
     </row>
-    <row r="194" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>3103</v>
       </c>
@@ -20077,7 +20074,7 @@
         <v>-0.52647115167112801</v>
       </c>
     </row>
-    <row r="195" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>3201</v>
       </c>
@@ -20172,7 +20169,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="196" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>3202</v>
       </c>
@@ -20267,7 +20264,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="197" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>3203</v>
       </c>
@@ -20362,7 +20359,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="198" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>3204</v>
       </c>
@@ -20457,7 +20454,7 @@
         <v>-1.9962298477631799</v>
       </c>
     </row>
-    <row r="199" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>3205</v>
       </c>
@@ -20552,7 +20549,7 @@
         <v>-0.89391082734761895</v>
       </c>
     </row>
-    <row r="200" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>3206</v>
       </c>
@@ -20647,7 +20644,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="201" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>3207</v>
       </c>
@@ -20739,7 +20736,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="202" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>3208</v>
       </c>
@@ -20828,7 +20825,7 @@
         <v>-0.89391082734761895</v>
       </c>
     </row>
-    <row r="203" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>3209</v>
       </c>
@@ -20923,7 +20920,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="204" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>3210</v>
       </c>
@@ -21018,7 +21015,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="205" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>3211</v>
       </c>
@@ -21113,7 +21110,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="206" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>3212</v>
       </c>
@@ -21208,7 +21205,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="207" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>3214</v>
       </c>
@@ -21300,7 +21297,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="208" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>3301</v>
       </c>
@@ -21395,7 +21392,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="209" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>3303</v>
       </c>
@@ -21484,7 +21481,7 @@
         <v>-0.52647115167112801</v>
       </c>
     </row>
-    <row r="210" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>3305</v>
       </c>
@@ -21579,7 +21576,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="211" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>3306</v>
       </c>
@@ -21674,7 +21671,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="212" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>3307</v>
       </c>
@@ -21769,7 +21766,7 @@
         <v>1.3107272068695801</v>
       </c>
     </row>
-    <row r="213" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>3308</v>
       </c>
@@ -21864,7 +21861,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="214" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>3310</v>
       </c>
@@ -21950,7 +21947,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="215" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>3311</v>
       </c>
@@ -22045,7 +22042,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="216" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>3312</v>
       </c>
@@ -22140,7 +22137,7 @@
         <v>-0.89391082734761895</v>
       </c>
     </row>
-    <row r="217" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>3313</v>
       </c>
@@ -22232,7 +22229,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="218" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>3314</v>
       </c>
@@ -22327,7 +22324,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="219" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>3316</v>
       </c>
@@ -22413,7 +22410,7 @@
         <v>1.3107272068695801</v>
       </c>
     </row>
-    <row r="220" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>3317</v>
       </c>
@@ -22508,7 +22505,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="221" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>3318</v>
       </c>
@@ -22591,7 +22588,7 @@
         <v>-1.9962298477631799</v>
       </c>
     </row>
-    <row r="222" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>3319</v>
       </c>
@@ -22686,7 +22683,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="223" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>3320</v>
       </c>
@@ -22781,7 +22778,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="224" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>3321</v>
       </c>
@@ -22870,7 +22867,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="225" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>3322</v>
       </c>
@@ -22956,7 +22953,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="226" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>3323</v>
       </c>
@@ -23051,7 +23048,7 @@
         <v>-0.89391082734761895</v>
       </c>
     </row>
-    <row r="227" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>3324</v>
       </c>
@@ -23128,7 +23125,7 @@
         <v>-0.11155798910072399</v>
       </c>
     </row>
-    <row r="228" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>3325</v>
       </c>
@@ -23223,7 +23220,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="229" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>3326</v>
       </c>
@@ -23318,7 +23315,7 @@
         <v>-0.89391082734761895</v>
       </c>
     </row>
-    <row r="230" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>3327</v>
       </c>
@@ -23413,7 +23410,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="231" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>3328</v>
       </c>
@@ -23505,7 +23502,7 @@
         <v>-0.52647115167112801</v>
       </c>
     </row>
-    <row r="232" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>3329</v>
       </c>
@@ -23594,7 +23591,7 @@
         <v>-0.89391082734761895</v>
       </c>
     </row>
-    <row r="233" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>3331</v>
       </c>
@@ -23686,7 +23683,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="234" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>3332</v>
       </c>
@@ -23781,7 +23778,7 @@
         <v>1.67816688254607</v>
       </c>
     </row>
-    <row r="235" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>3334</v>
       </c>
@@ -23867,7 +23864,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="236" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>3335</v>
       </c>
@@ -23962,7 +23959,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="237" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>3336</v>
       </c>
@@ -24057,7 +24054,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="238" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>3337</v>
       </c>
@@ -24143,7 +24140,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="239" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>3338</v>
       </c>
@@ -24238,7 +24235,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="240" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>3339</v>
       </c>
@@ -24333,7 +24330,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="241" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>3340</v>
       </c>
@@ -24428,7 +24425,7 @@
         <v>1.3107272068695801</v>
       </c>
     </row>
-    <row r="242" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>3341</v>
       </c>
@@ -24523,7 +24520,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="243" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>3342</v>
       </c>
@@ -24618,7 +24615,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="244" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>3343</v>
       </c>
@@ -24710,7 +24707,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="245" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>3344</v>
       </c>
@@ -24805,7 +24802,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="246" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>3346</v>
       </c>
@@ -24897,7 +24894,7 @@
         <v>1.3107272068695801</v>
       </c>
     </row>
-    <row r="247" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>3347</v>
       </c>
@@ -24989,7 +24986,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="248" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>3348</v>
       </c>
@@ -25081,7 +25078,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="249" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>3350</v>
       </c>
@@ -25176,7 +25173,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="250" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>3351</v>
       </c>
@@ -25271,7 +25268,7 @@
         <v>1.67816688254607</v>
       </c>
     </row>
-    <row r="251" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>3352</v>
       </c>
@@ -25366,7 +25363,7 @@
         <v>1.3107272068695801</v>
       </c>
     </row>
-    <row r="252" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>3353</v>
       </c>
@@ -25461,7 +25458,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="253" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>3354</v>
       </c>
@@ -25553,7 +25550,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="254" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>3355</v>
       </c>
@@ -25648,7 +25645,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="255" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>3356</v>
       </c>
@@ -25737,7 +25734,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="256" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>3359</v>
       </c>
@@ -25829,7 +25826,7 @@
         <v>-0.89391082734761895</v>
       </c>
     </row>
-    <row r="257" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>3360</v>
       </c>
@@ -25924,7 +25921,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="258" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>3361</v>
       </c>
@@ -26016,7 +26013,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="259" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>3364</v>
       </c>
@@ -26111,7 +26108,7 @@
         <v>-1.62879017208669</v>
       </c>
     </row>
-    <row r="260" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>3365</v>
       </c>
@@ -26206,7 +26203,7 @@
         <v>-0.89391082734761895</v>
       </c>
     </row>
-    <row r="261" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>3366</v>
       </c>
@@ -26301,7 +26298,7 @@
         <v>-0.89391082734761895</v>
       </c>
     </row>
-    <row r="262" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>3367</v>
       </c>
@@ -26396,7 +26393,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="263" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>3368</v>
       </c>
@@ -26506,7 +26503,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="264" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>3370</v>
       </c>
@@ -26601,7 +26598,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="265" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>3371</v>
       </c>
@@ -26696,7 +26693,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="266" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>3372</v>
       </c>
@@ -26791,7 +26788,7 @@
         <v>-0.52647115167112801</v>
       </c>
     </row>
-    <row r="267" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>3374</v>
       </c>
@@ -26874,7 +26871,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="268" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>3375</v>
       </c>
@@ -26969,7 +26966,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="269" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>3376</v>
       </c>
@@ -27052,7 +27049,7 @@
         <v>-0.89391082734761895</v>
       </c>
     </row>
-    <row r="270" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>3378</v>
       </c>
@@ -27144,7 +27141,7 @@
         <v>1.3107272068695801</v>
       </c>
     </row>
-    <row r="271" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>3379</v>
       </c>
@@ -27236,7 +27233,7 @@
         <v>1.3107272068695801</v>
       </c>
     </row>
-    <row r="272" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>3380</v>
       </c>
@@ -27322,7 +27319,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="273" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>3381</v>
       </c>
@@ -27417,7 +27414,7 @@
         <v>-0.52647115167112801</v>
       </c>
     </row>
-    <row r="274" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>5004</v>
       </c>
@@ -27509,7 +27506,7 @@
         <v>5.4658813496062901</v>
       </c>
     </row>
-    <row r="275" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>5006</v>
       </c>
@@ -27604,7 +27601,7 @@
         <v>-1.2613504964102</v>
       </c>
     </row>
-    <row r="276" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>5008</v>
       </c>
@@ -27723,7 +27720,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="277" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>5009</v>
       </c>
@@ -27785,7 +27782,7 @@
         <v>-0.52647115167112801</v>
       </c>
     </row>
-    <row r="278" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>5012</v>
       </c>
@@ -27907,7 +27904,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="279" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>5013</v>
       </c>
@@ -28029,7 +28026,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="280" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>5016</v>
       </c>
@@ -28148,7 +28145,7 @@
         <v>-0.52647115167112801</v>
       </c>
     </row>
-    <row r="281" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>5018</v>
       </c>
@@ -28249,7 +28246,7 @@
         <v>-1.2613504964102</v>
       </c>
     </row>
-    <row r="282" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>5021</v>
       </c>
@@ -28368,7 +28365,7 @@
         <v>-2.7311091925022399</v>
       </c>
     </row>
-    <row r="283" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>5022</v>
       </c>
@@ -28487,7 +28484,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="284" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>5024</v>
       </c>
@@ -28606,7 +28603,7 @@
         <v>-1.2613504964102</v>
       </c>
     </row>
-    <row r="285" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>5025</v>
       </c>
@@ -28722,7 +28719,7 @@
         <v>-1.9962298477631799</v>
       </c>
     </row>
-    <row r="286" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>48</v>
       </c>
@@ -28760,7 +28757,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="287" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>49</v>
       </c>
@@ -28810,7 +28807,7 @@
         <v>-1.2613504964102</v>
       </c>
     </row>
-    <row r="288" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>5029</v>
       </c>
@@ -28920,7 +28917,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="289" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>5030</v>
       </c>
@@ -29042,7 +29039,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="290" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>5031</v>
       </c>
@@ -29161,7 +29158,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="291" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>5032</v>
       </c>
@@ -29253,7 +29250,7 @@
         <v>-1.2613504964102</v>
       </c>
     </row>
-    <row r="292" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>5033</v>
       </c>
@@ -29366,7 +29363,7 @@
         <v>-1.9962298477631799</v>
       </c>
     </row>
-    <row r="293" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>5034</v>
       </c>
@@ -29485,7 +29482,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="294" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>5035</v>
       </c>
@@ -29559,7 +29556,7 @@
         <v>-0.16630687989507301</v>
       </c>
     </row>
-    <row r="295" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>5036</v>
       </c>
@@ -29681,7 +29678,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="296" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>5037</v>
       </c>
@@ -29797,7 +29794,7 @@
         <v>-0.52647115167112801</v>
       </c>
     </row>
-    <row r="297" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>5047</v>
       </c>
@@ -29916,7 +29913,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="298" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>5048</v>
       </c>
@@ -30035,7 +30032,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="299" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>5050</v>
       </c>
@@ -30157,7 +30154,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="300" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>5051</v>
       </c>
@@ -30258,7 +30255,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="301" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>5052</v>
       </c>
@@ -30371,7 +30368,7 @@
         <v>-1.62879017208669</v>
       </c>
     </row>
-    <row r="302" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>5057</v>
       </c>
@@ -30490,7 +30487,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="303" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>5059</v>
       </c>
@@ -30594,7 +30591,7 @@
         <v>-2.36366951682575</v>
       </c>
     </row>
-    <row r="304" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>5060</v>
       </c>
@@ -30707,7 +30704,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="305" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>5061</v>
       </c>
@@ -30823,7 +30820,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="306" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>5062</v>
       </c>
@@ -30942,7 +30939,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="307" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>5063</v>
       </c>
@@ -31064,7 +31061,7 @@
         <v>-0.89391082734761895</v>
       </c>
     </row>
-    <row r="308" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>5065</v>
       </c>
@@ -31183,7 +31180,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="309" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>5066</v>
       </c>
@@ -31302,7 +31299,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="310" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>5067</v>
       </c>
@@ -31421,7 +31418,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="311" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>5068</v>
       </c>
@@ -31540,7 +31537,7 @@
         <v>-1.2613504964102</v>
       </c>
     </row>
-    <row r="312" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>5070</v>
       </c>
@@ -31587,7 +31584,7 @@
         <v>-0.62156556868208301</v>
       </c>
     </row>
-    <row r="313" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>5072</v>
       </c>
@@ -31664,7 +31661,7 @@
         <v>0.49391892901168499</v>
       </c>
     </row>
-    <row r="314" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>5073</v>
       </c>
@@ -31723,7 +31720,7 @@
         <v>-0.227032879716041</v>
       </c>
     </row>
-    <row r="315" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>5074</v>
       </c>
@@ -31836,7 +31833,7 @@
         <v>1.67816688254607</v>
       </c>
     </row>
-    <row r="316" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>5075</v>
       </c>
@@ -31952,7 +31949,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="317" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>5076</v>
       </c>
@@ -32068,7 +32065,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="318" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>5078</v>
       </c>
@@ -32160,7 +32157,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="319" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>5079</v>
       </c>
@@ -32195,7 +32192,7 @@
         <v>-0.52643616272775096</v>
       </c>
     </row>
-    <row r="320" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>5080</v>
       </c>
@@ -32314,7 +32311,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="321" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>5081</v>
       </c>
@@ -32424,7 +32421,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="322" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>5083</v>
       </c>
@@ -32540,7 +32537,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="323" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>5084</v>
       </c>
@@ -32662,7 +32659,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="324" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>5085</v>
       </c>
@@ -32781,7 +32778,7 @@
         <v>-0.52647115167112801</v>
       </c>
     </row>
-    <row r="325" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>5086</v>
       </c>
@@ -32897,7 +32894,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="326" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>5087</v>
       </c>
@@ -33016,7 +33013,7 @@
         <v>-2.36366951682575</v>
       </c>
     </row>
-    <row r="327" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>5090</v>
       </c>
@@ -33138,7 +33135,7 @@
         <v>-0.52647115167112801</v>
       </c>
     </row>
-    <row r="328" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>5091</v>
       </c>
@@ -33242,7 +33239,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="329" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>5092</v>
       </c>
@@ -33361,7 +33358,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="330" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>5093</v>
       </c>
@@ -33480,7 +33477,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="331" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>5094</v>
       </c>
@@ -33602,7 +33599,7 @@
         <v>-0.89391082734761895</v>
       </c>
     </row>
-    <row r="332" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>5095</v>
       </c>
@@ -33721,7 +33718,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="333" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>5096</v>
       </c>
@@ -33840,7 +33837,7 @@
         <v>-0.89391082734761895</v>
       </c>
     </row>
-    <row r="334" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>5097</v>
       </c>
@@ -33923,7 +33920,7 @@
         <v>-0.11155798910072399</v>
       </c>
     </row>
-    <row r="335" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>5098</v>
       </c>
@@ -34042,7 +34039,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="336" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>5099</v>
       </c>
@@ -34164,7 +34161,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="337" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>5100</v>
       </c>
@@ -34286,7 +34283,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="338" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>5102</v>
       </c>
@@ -34402,7 +34399,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="339" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>5103</v>
       </c>
@@ -34521,7 +34518,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="340" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>5104</v>
       </c>
@@ -34637,7 +34634,7 @@
         <v>-0.25833271155312598</v>
       </c>
     </row>
-    <row r="341" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>5105</v>
       </c>
@@ -34756,7 +34753,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="342" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>5106</v>
       </c>
@@ -34875,7 +34872,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="343" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>5107</v>
       </c>
@@ -34988,7 +34985,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="344" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>5108</v>
       </c>
@@ -35110,7 +35107,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="345" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>5109</v>
       </c>
@@ -35202,7 +35199,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="346" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>5111</v>
       </c>
@@ -35318,7 +35315,7 @@
         <v>-1.2613504964102</v>
       </c>
     </row>
-    <row r="347" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>5112</v>
       </c>
@@ -35434,7 +35431,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="348" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>5114</v>
       </c>
@@ -35526,7 +35523,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="349" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>5116</v>
       </c>
@@ -35642,7 +35639,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="350" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>5117</v>
       </c>
@@ -35764,7 +35761,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="351" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>5119</v>
       </c>
@@ -35883,7 +35880,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="352" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>5120</v>
       </c>
@@ -36002,7 +35999,7 @@
         <v>-1.2613504964102</v>
       </c>
     </row>
-    <row r="353" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>5200</v>
       </c>
@@ -36088,7 +36085,7 @@
         <v>-0.11155798910072399</v>
       </c>
     </row>
-    <row r="354" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>5201</v>
       </c>
@@ -36207,7 +36204,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="355" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>5203</v>
       </c>
@@ -36323,7 +36320,7 @@
         <v>-0.89391082734761895</v>
       </c>
     </row>
-    <row r="356" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>5204</v>
       </c>
@@ -36424,7 +36421,7 @@
         <v>-0.25833271155312598</v>
       </c>
     </row>
-    <row r="357" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>5205</v>
       </c>
@@ -36540,7 +36537,7 @@
         <v>1.3107272068695801</v>
       </c>
     </row>
-    <row r="358" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>5206</v>
       </c>
@@ -36659,7 +36656,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="359" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>5207</v>
       </c>
@@ -36724,7 +36721,7 @@
         <v>0.63677267399062498</v>
       </c>
     </row>
-    <row r="360" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>5209</v>
       </c>
@@ -36840,7 +36837,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="361" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>5210</v>
       </c>
@@ -36956,7 +36953,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="362" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>5211</v>
       </c>
@@ -37024,7 +37021,7 @@
         <v>0.30858344900400603</v>
       </c>
     </row>
-    <row r="363" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>5213</v>
       </c>
@@ -37104,7 +37101,7 @@
         <v>0.16380602455830501</v>
       </c>
     </row>
-    <row r="364" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>5214</v>
       </c>
@@ -37145,7 +37142,7 @@
         <v>-0.612161062189995</v>
       </c>
     </row>
-    <row r="365" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>7324</v>
       </c>
@@ -37189,7 +37186,7 @@
         <v>1.3107272068695801</v>
       </c>
     </row>
-    <row r="366" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>7519</v>
       </c>
@@ -37269,7 +37266,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="367" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>51</v>
       </c>
@@ -37349,7 +37346,7 @@
         <v>1.67816688254607</v>
       </c>
     </row>
-    <row r="368" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>52</v>
       </c>
@@ -37375,7 +37372,7 @@
         <v>2.9707111207543502</v>
       </c>
     </row>
-    <row r="369" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>53</v>
       </c>
@@ -37398,7 +37395,7 @@
         <v>-2.36366951682575</v>
       </c>
     </row>
-    <row r="370" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>54</v>
       </c>
@@ -37421,7 +37418,7 @@
         <v>-2.36366951682575</v>
       </c>
     </row>
-    <row r="371" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>55</v>
       </c>
@@ -37444,7 +37441,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="372" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>56</v>
       </c>
@@ -37536,7 +37533,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="373" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>57</v>
       </c>
@@ -37604,7 +37601,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="374" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>58</v>
       </c>
@@ -37627,7 +37624,7 @@
         <v>-1.2613504964102</v>
       </c>
     </row>
-    <row r="375" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>59</v>
       </c>
@@ -37740,7 +37737,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="376" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>60</v>
       </c>
@@ -37853,7 +37850,7 @@
         <v>-0.52647115167112801</v>
       </c>
     </row>
-    <row r="377" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>61</v>
       </c>
@@ -37960,7 +37957,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="378" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>62</v>
       </c>
@@ -38049,7 +38046,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="379" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>63</v>
       </c>
@@ -38159,7 +38156,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="380" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>64</v>
       </c>
@@ -38254,7 +38251,7 @@
         <v>-0.89391082734761895</v>
       </c>
     </row>
-    <row r="381" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>65</v>
       </c>
@@ -38364,7 +38361,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="382" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>66</v>
       </c>
@@ -38471,7 +38468,7 @@
         <v>-1.2613504964102</v>
       </c>
     </row>
-    <row r="383" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>67</v>
       </c>
@@ -38593,7 +38590,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="384" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>68</v>
       </c>
@@ -38712,7 +38709,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="385" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>69</v>
       </c>
@@ -38789,7 +38786,7 @@
         <v>-0.69865687010385102</v>
       </c>
     </row>
-    <row r="386" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>70</v>
       </c>
@@ -38908,7 +38905,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="387" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>71</v>
       </c>
@@ -38994,7 +38991,7 @@
         <v>1.3107272068695801</v>
       </c>
     </row>
-    <row r="388" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>72</v>
       </c>
@@ -39089,7 +39086,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="389" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>73</v>
       </c>
@@ -39121,7 +39118,7 @@
         <v>-0.27163337958789802</v>
       </c>
     </row>
-    <row r="390" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>74</v>
       </c>
@@ -39228,7 +39225,7 @@
         <v>-1.2613504964102</v>
       </c>
     </row>
-    <row r="391" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>75</v>
       </c>
@@ -39260,7 +39257,7 @@
         <v>-0.91195849117306904</v>
       </c>
     </row>
-    <row r="392" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>76</v>
       </c>
@@ -39292,7 +39289,7 @@
         <v>0.24188556798305999</v>
       </c>
     </row>
-    <row r="393" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>77</v>
       </c>
@@ -39324,7 +39321,7 @@
         <v>-0.46428330497044401</v>
       </c>
     </row>
-    <row r="394" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>78</v>
       </c>
@@ -39356,7 +39353,7 @@
         <v>0.49752522349220901</v>
       </c>
     </row>
-    <row r="395" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>79</v>
       </c>
@@ -39388,7 +39385,7 @@
         <v>-0.63348658573008898</v>
       </c>
     </row>
-    <row r="396" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>80</v>
       </c>
@@ -39420,7 +39417,7 @@
         <v>0.39906114565256001</v>
       </c>
     </row>
-    <row r="397" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>81</v>
       </c>
@@ -39452,7 +39449,7 @@
         <v>-0.54541933598531001</v>
       </c>
     </row>
-    <row r="398" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>82</v>
       </c>
@@ -39484,7 +39481,7 @@
         <v>-1.0550677720083299</v>
       </c>
     </row>
-    <row r="399" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>83</v>
       </c>
@@ -39516,7 +39513,7 @@
         <v>0.63778047308574504</v>
       </c>
     </row>
-    <row r="400" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>84</v>
       </c>
@@ -39548,7 +39545,7 @@
         <v>-0.83000702266056703</v>
       </c>
     </row>
-    <row r="401" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>85</v>
       </c>
@@ -39580,7 +39577,7 @@
         <v>-0.441654914411022</v>
       </c>
     </row>
-    <row r="402" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>86</v>
       </c>
@@ -39612,7 +39609,7 @@
         <v>-0.88402975687900798</v>
       </c>
     </row>
-    <row r="403" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>87</v>
       </c>
@@ -39644,7 +39641,7 @@
         <v>-0.59067611710415402</v>
       </c>
     </row>
-    <row r="404" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>88</v>
       </c>
@@ -39676,7 +39673,7 @@
         <v>-0.71910752298195701</v>
       </c>
     </row>
-    <row r="405" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>89</v>
       </c>
@@ -39708,7 +39705,7 @@
         <v>-0.67201600749342905</v>
       </c>
     </row>
-    <row r="406" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>90</v>
       </c>
@@ -39740,7 +39737,7 @@
         <v>-0.74153205416696999</v>
       </c>
     </row>
-    <row r="407" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>91</v>
       </c>
@@ -39772,7 +39769,7 @@
         <v>-1.14300906578251E-2</v>
       </c>
     </row>
-    <row r="408" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>92</v>
       </c>
@@ -39804,7 +39801,7 @@
         <v>-0.98942505344856901</v>
       </c>
     </row>
-    <row r="409" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>93</v>
       </c>
@@ -39863,7 +39860,7 @@
         <v>-0.66154926161462202</v>
       </c>
     </row>
-    <row r="410" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>94</v>
       </c>
@@ -39949,7 +39946,7 @@
         <v>-0.55188214765144805</v>
       </c>
     </row>
-    <row r="411" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>95</v>
       </c>
@@ -40032,7 +40029,7 @@
         <v>-2.36366951682575</v>
       </c>
     </row>
-    <row r="412" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>96</v>
       </c>
@@ -40148,7 +40145,7 @@
         <v>-1.9962298477631799</v>
       </c>
     </row>
-    <row r="413" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>97</v>
       </c>
@@ -40249,7 +40246,7 @@
         <v>-0.40510742519904602</v>
       </c>
     </row>
-    <row r="414" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>98</v>
       </c>
@@ -40344,7 +40341,7 @@
         <v>-1.9962298477631799</v>
       </c>
     </row>
-    <row r="415" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>99</v>
       </c>
@@ -40436,7 +40433,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="416" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>100</v>
       </c>
@@ -40543,7 +40540,7 @@
         <v>-0.89391082734761895</v>
       </c>
     </row>
-    <row r="417" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>101</v>
       </c>
@@ -40647,7 +40644,7 @@
         <v>-0.89391082734761895</v>
       </c>
     </row>
-    <row r="418" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>102</v>
       </c>
@@ -40754,7 +40751,7 @@
         <v>-1.62879017208669</v>
       </c>
     </row>
-    <row r="419" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>103</v>
       </c>
@@ -40852,7 +40849,7 @@
         <v>-1.9962298477631799</v>
       </c>
     </row>
-    <row r="420" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>104</v>
       </c>
@@ -40941,7 +40938,7 @@
         <v>-2.36366951682575</v>
       </c>
     </row>
-    <row r="421" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>105</v>
       </c>
@@ -40985,7 +40982,7 @@
         <v>-1.62879017208669</v>
       </c>
     </row>
-    <row r="422" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>106</v>
       </c>
@@ -41068,7 +41065,7 @@
         <v>-1.2613504964102</v>
       </c>
     </row>
-    <row r="423" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>107</v>
       </c>
@@ -41187,7 +41184,7 @@
         <v>1.67816688254607</v>
       </c>
     </row>
-    <row r="424" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>108</v>
       </c>
@@ -41309,7 +41306,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="425" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>109</v>
       </c>
@@ -41431,7 +41428,7 @@
         <v>-0.89391082734761895</v>
       </c>
     </row>
-    <row r="426" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>110</v>
       </c>
@@ -41553,7 +41550,7 @@
         <v>-0.52647115167112801</v>
       </c>
     </row>
-    <row r="427" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>111</v>
       </c>
@@ -41648,7 +41645,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="428" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>112</v>
       </c>
@@ -41770,7 +41767,7 @@
         <v>1.67816688254607</v>
       </c>
     </row>
-    <row r="429" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>113</v>
       </c>
@@ -41889,7 +41886,7 @@
         <v>-0.89391082734761895</v>
       </c>
     </row>
-    <row r="430" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>114</v>
       </c>
@@ -42008,7 +42005,7 @@
         <v>1.3107272068695801</v>
       </c>
     </row>
-    <row r="431" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>115</v>
       </c>
@@ -42118,7 +42115,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="432" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>116</v>
       </c>
@@ -42228,7 +42225,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="433" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>117</v>
       </c>
@@ -42350,7 +42347,7 @@
         <v>1.3107272068695801</v>
       </c>
     </row>
-    <row r="434" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>118</v>
       </c>
@@ -42388,7 +42385,7 @@
         <v>4.0036519922805797E-2</v>
       </c>
     </row>
-    <row r="435" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>119</v>
       </c>
@@ -42429,7 +42426,7 @@
         <v>5.45783152161711</v>
       </c>
     </row>
-    <row r="436" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>120</v>
       </c>
@@ -42467,7 +42464,7 @@
         <v>-0.23651513306126001</v>
       </c>
     </row>
-    <row r="437" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>121</v>
       </c>
@@ -42505,7 +42502,7 @@
         <v>2.50665378845745</v>
       </c>
     </row>
-    <row r="438" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>122</v>
       </c>
@@ -42549,7 +42546,7 @@
         <v>0.18199144699759801</v>
       </c>
     </row>
-    <row r="439" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>123</v>
       </c>
@@ -42590,7 +42587,7 @@
         <v>1.2942076586833999</v>
       </c>
     </row>
-    <row r="440" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>124</v>
       </c>
@@ -42709,7 +42706,7 @@
         <v>-0.89391082734761895</v>
       </c>
     </row>
-    <row r="441" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>125</v>
       </c>
@@ -42750,7 +42747,7 @@
         <v>0.69588039479236996</v>
       </c>
     </row>
-    <row r="442" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>126</v>
       </c>
@@ -42791,7 +42788,7 @@
         <v>1.4650418144383199</v>
       </c>
     </row>
-    <row r="443" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>127</v>
       </c>
@@ -42832,7 +42829,7 @@
         <v>4.7969194297824496</v>
       </c>
     </row>
-    <row r="444" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>128</v>
       </c>
@@ -42873,7 +42870,7 @@
         <v>4.0984972130564898</v>
       </c>
     </row>
-    <row r="445" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>129</v>
       </c>
@@ -42914,7 +42911,7 @@
         <v>2.42236543666397</v>
       </c>
     </row>
-    <row r="446" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>130</v>
       </c>
@@ -42952,7 +42949,7 @@
         <v>0.493506757411941</v>
       </c>
     </row>
-    <row r="447" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>131</v>
       </c>
@@ -42993,7 +42990,7 @@
         <v>1.70253798562505</v>
       </c>
     </row>
-    <row r="448" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>132</v>
       </c>
@@ -43031,7 +43028,7 @@
         <v>4.74420807169217</v>
       </c>
     </row>
-    <row r="449" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>133</v>
       </c>
@@ -43072,7 +43069,7 @@
         <v>-0.34359855939737899</v>
       </c>
     </row>
-    <row r="450" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>134</v>
       </c>
@@ -43107,7 +43104,7 @@
         <v>3.8801005499103098</v>
       </c>
     </row>
-    <row r="451" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>135</v>
       </c>
@@ -43145,7 +43142,7 @@
         <v>0.17691562089471799</v>
       </c>
     </row>
-    <row r="452" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>136</v>
       </c>
@@ -43180,7 +43177,7 @@
         <v>0.41622126000887499</v>
       </c>
     </row>
-    <row r="453" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>137</v>
       </c>
@@ -43302,7 +43299,7 @@
         <v>-1.2613504964102</v>
       </c>
     </row>
-    <row r="454" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>138</v>
       </c>
@@ -43340,7 +43337,7 @@
         <v>-0.44043705899900498</v>
       </c>
     </row>
-    <row r="455" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>139</v>
       </c>
@@ -43378,7 +43375,7 @@
         <v>0.80637325529616</v>
       </c>
     </row>
-    <row r="456" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>140</v>
       </c>
@@ -43413,7 +43410,7 @@
         <v>2.39491574684773</v>
       </c>
     </row>
-    <row r="457" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>141</v>
       </c>
@@ -43454,7 +43451,7 @@
         <v>2.2160597497618499</v>
       </c>
     </row>
-    <row r="458" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>142</v>
       </c>
@@ -43576,7 +43573,7 @@
         <v>-0.89391082734761895</v>
       </c>
     </row>
-    <row r="459" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>143</v>
       </c>
@@ -43695,7 +43692,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="460" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>24</v>
       </c>
@@ -43724,7 +43721,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="461" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>113</v>
       </c>
@@ -43762,7 +43759,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="462" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>137</v>
       </c>
@@ -43800,7 +43797,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="463" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>144</v>
       </c>
@@ -43850,7 +43847,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="464" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>145</v>
       </c>
@@ -43888,7 +43885,7 @@
         <v>-0.89391082734761895</v>
       </c>
     </row>
-    <row r="465" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>146</v>
       </c>
@@ -43917,7 +43914,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="466" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>147</v>
       </c>
@@ -43946,7 +43943,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="467" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>148</v>
       </c>
@@ -43975,7 +43972,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="468" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>149</v>
       </c>
@@ -44004,7 +44001,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="469" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>150</v>
       </c>
@@ -44042,7 +44039,7 @@
         <v>-0.52647115167112801</v>
       </c>
     </row>
-    <row r="470" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>151</v>
       </c>
@@ -44080,7 +44077,7 @@
         <v>1.67816688254607</v>
       </c>
     </row>
-    <row r="471" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>152</v>
       </c>
@@ -44118,7 +44115,7 @@
         <v>-1.9962298477631799</v>
       </c>
     </row>
-    <row r="472" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>153</v>
       </c>
@@ -44156,7 +44153,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="473" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>154</v>
       </c>
@@ -44194,7 +44191,7 @@
         <v>-1.9962298477631799</v>
       </c>
     </row>
-    <row r="474" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>155</v>
       </c>
@@ -44229,7 +44226,7 @@
         <v>-1.9962298477631799</v>
       </c>
     </row>
-    <row r="475" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>156</v>
       </c>
@@ -44267,7 +44264,7 @@
         <v>-0.89391082734761895</v>
       </c>
     </row>
-    <row r="476" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>157</v>
       </c>
@@ -44308,7 +44305,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="477" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>158</v>
       </c>
@@ -44346,7 +44343,7 @@
         <v>-1.2613504964102</v>
       </c>
     </row>
-    <row r="478" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>159</v>
       </c>
@@ -44387,7 +44384,7 @@
         <v>-0.52647115167112801</v>
       </c>
     </row>
-    <row r="479" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>160</v>
       </c>
@@ -44416,7 +44413,7 @@
         <v>0.77110450394936902</v>
       </c>
     </row>
-    <row r="480" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>161</v>
       </c>
@@ -44454,7 +44451,7 @@
         <v>1.67816688254607</v>
       </c>
     </row>
-    <row r="481" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>162</v>
       </c>
@@ -44486,7 +44483,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="482" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>163</v>
       </c>
@@ -44521,7 +44518,7 @@
         <v>-0.225105293944838</v>
       </c>
     </row>
-    <row r="483" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>164</v>
       </c>
@@ -44556,7 +44553,7 @@
         <v>2.54671965505359</v>
       </c>
     </row>
-    <row r="484" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>165</v>
       </c>
@@ -44594,7 +44591,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="485" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>166</v>
       </c>
@@ -44632,7 +44629,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="486" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>167</v>
       </c>
@@ -44667,7 +44664,7 @@
         <v>0.76551875709055595</v>
       </c>
     </row>
-    <row r="487" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>168</v>
       </c>
@@ -44705,7 +44702,7 @@
         <v>1.3107272068695801</v>
       </c>
     </row>
-    <row r="488" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>169</v>
       </c>
@@ -44743,7 +44740,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="489" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>170</v>
       </c>
@@ -44781,7 +44778,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="490" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>171</v>
       </c>
@@ -44825,7 +44822,7 @@
         <v>-0.55188214765144805</v>
       </c>
     </row>
-    <row r="491" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>172</v>
       </c>
@@ -44947,7 +44944,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="492" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>173</v>
       </c>
@@ -45057,7 +45054,7 @@
         <v>-0.52647115167112801</v>
       </c>
     </row>
-    <row r="493" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>174</v>
       </c>
@@ -45089,7 +45086,7 @@
         <v>-0.82112435551061902</v>
       </c>
     </row>
-    <row r="494" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>175</v>
       </c>
@@ -45172,7 +45169,7 @@
         <v>-0.69865687010385102</v>
       </c>
     </row>
-    <row r="495" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>176</v>
       </c>
@@ -45291,7 +45288,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="496" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>177</v>
       </c>
@@ -45326,7 +45323,7 @@
         <v>0.49628708356534101</v>
       </c>
     </row>
-    <row r="497" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>178</v>
       </c>
@@ -45436,7 +45433,7 @@
         <v>1.3107272068695801</v>
       </c>
     </row>
-    <row r="498" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>179</v>
       </c>
@@ -45495,7 +45492,7 @@
         <v>0.38951032706608002</v>
       </c>
     </row>
-    <row r="499" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>180</v>
       </c>
@@ -45575,7 +45572,7 @@
         <v>3.5216733351678603E-2</v>
       </c>
     </row>
-    <row r="500" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>181</v>
       </c>
@@ -45649,7 +45646,7 @@
         <v>-0.55188214765144805</v>
       </c>
     </row>
-    <row r="501" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>182</v>
       </c>
@@ -45771,7 +45768,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="502" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>183</v>
       </c>
@@ -45845,7 +45842,7 @@
         <v>-0.69430288308412103</v>
       </c>
     </row>
-    <row r="503" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>184</v>
       </c>
@@ -45958,7 +45955,7 @@
         <v>0.91586505045312805</v>
       </c>
     </row>
-    <row r="504" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>185</v>
       </c>
@@ -46077,7 +46074,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="505" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>186</v>
       </c>
@@ -46196,7 +46193,7 @@
         <v>-0.52647115167112801</v>
       </c>
     </row>
-    <row r="506" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>187</v>
       </c>
@@ -46309,7 +46306,7 @@
         <v>-1.9962298477631799</v>
       </c>
     </row>
-    <row r="507" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>188</v>
       </c>
@@ -46383,7 +46380,7 @@
         <v>-2.36366951682575</v>
       </c>
     </row>
-    <row r="508" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>189</v>
       </c>
@@ -46466,7 +46463,7 @@
         <v>-0.40510742519904602</v>
       </c>
     </row>
-    <row r="509" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>190</v>
       </c>
@@ -46510,7 +46507,7 @@
         <v>2.3353211804377598</v>
       </c>
     </row>
-    <row r="510" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>191</v>
       </c>
@@ -46596,7 +46593,7 @@
         <v>-1.15664559325521</v>
       </c>
     </row>
-    <row r="511" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>192</v>
       </c>
@@ -46655,7 +46652,7 @@
         <v>-2.36366951682575</v>
       </c>
     </row>
-    <row r="512" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>193</v>
       </c>
@@ -46684,7 +46681,7 @@
         <v>-1.2613504964102</v>
       </c>
     </row>
-    <row r="513" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>194</v>
       </c>
@@ -46749,7 +46746,7 @@
         <v>-0.52647115167112801</v>
       </c>
     </row>
-    <row r="514" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>195</v>
       </c>
@@ -46805,7 +46802,7 @@
         <v>-0.89391082734761895</v>
       </c>
     </row>
-    <row r="515" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>196</v>
       </c>
@@ -46858,7 +46855,7 @@
         <v>-0.89391082734761895</v>
       </c>
     </row>
-    <row r="516" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>197</v>
       </c>
@@ -46902,7 +46899,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="517" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>198</v>
       </c>
@@ -46946,7 +46943,7 @@
         <v>-0.89391082734761895</v>
       </c>
     </row>
-    <row r="518" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>199</v>
       </c>
@@ -46981,7 +46978,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="519" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>200</v>
       </c>
@@ -47019,7 +47016,7 @@
         <v>1.3107272068695801</v>
       </c>
     </row>
-    <row r="520" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>201</v>
       </c>
@@ -47075,7 +47072,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="521" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>202</v>
       </c>
@@ -47110,7 +47107,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="522" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>203</v>
       </c>
@@ -47145,7 +47142,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="523" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>204</v>
       </c>
@@ -47264,7 +47261,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="524" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>205</v>
       </c>
@@ -47377,7 +47374,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="525" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>206</v>
       </c>
@@ -47496,7 +47493,7 @@
         <v>-2.36366951682575</v>
       </c>
     </row>
-    <row r="526" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>207</v>
       </c>
@@ -47606,7 +47603,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="527" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>208</v>
       </c>
@@ -47722,7 +47719,7 @@
         <v>1.67816688254607</v>
       </c>
     </row>
-    <row r="528" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>209</v>
       </c>
@@ -47841,7 +47838,7 @@
         <v>-1.9962298477631799</v>
       </c>
     </row>
-    <row r="529" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>210</v>
       </c>
@@ -47963,7 +47960,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="530" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>211</v>
       </c>
@@ -48040,7 +48037,7 @@
         <v>-0.69865687010385102</v>
       </c>
     </row>
-    <row r="531" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>212</v>
       </c>
@@ -48132,7 +48129,7 @@
         <v>0.32876616945000098</v>
       </c>
     </row>
-    <row r="532" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>213</v>
       </c>
@@ -48218,7 +48215,7 @@
         <v>-0.89391082734761895</v>
       </c>
     </row>
-    <row r="533" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>214</v>
       </c>
@@ -48334,7 +48331,7 @@
         <v>1.3107272068695801</v>
       </c>
     </row>
-    <row r="534" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>215</v>
       </c>
@@ -48456,7 +48453,7 @@
         <v>1.3107272068695801</v>
       </c>
     </row>
-    <row r="535" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>216</v>
       </c>
@@ -48575,7 +48572,7 @@
         <v>-1.2613504964102</v>
       </c>
     </row>
-    <row r="536" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>217</v>
       </c>
@@ -48664,7 +48661,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="537" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>218</v>
       </c>
@@ -48744,7 +48741,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="538" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>219</v>
       </c>
@@ -48863,7 +48860,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="539" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>220</v>
       </c>
@@ -48985,7 +48982,7 @@
         <v>-0.15903148260855199</v>
       </c>
     </row>
-    <row r="540" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>221</v>
       </c>
@@ -49032,7 +49029,7 @@
         <v>-2.36366951682575</v>
       </c>
     </row>
-    <row r="541" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>222</v>
       </c>
@@ -49154,7 +49151,7 @@
         <v>1.3107272068695801</v>
       </c>
     </row>
-    <row r="542" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>223</v>
       </c>
@@ -49273,7 +49270,7 @@
         <v>-3.09854886156482</v>
       </c>
     </row>
-    <row r="543" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>224</v>
       </c>
@@ -49389,7 +49386,7 @@
         <v>-0.89391082734761895</v>
       </c>
     </row>
-    <row r="544" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>225</v>
       </c>
@@ -49508,7 +49505,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="545" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>226</v>
       </c>
@@ -49588,7 +49585,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="546" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>227</v>
       </c>
@@ -49707,7 +49704,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="547" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>228</v>
       </c>
@@ -49826,7 +49823,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="548" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>229</v>
       </c>
@@ -49945,7 +49942,7 @@
         <v>1.3107272068695801</v>
       </c>
     </row>
-    <row r="549" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>230</v>
       </c>
@@ -50043,7 +50040,7 @@
         <v>0.20840819306793901</v>
       </c>
     </row>
-    <row r="550" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>231</v>
       </c>
@@ -50165,7 +50162,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="551" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>232</v>
       </c>
@@ -50287,7 +50284,7 @@
         <v>0.94328753780700603</v>
       </c>
     </row>
-    <row r="552" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>233</v>
       </c>
@@ -50409,7 +50406,7 @@
         <v>0.57584786213051598</v>
       </c>
     </row>
-    <row r="553" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>234</v>
       </c>
@@ -50447,7 +50444,7 @@
         <v>-1.0297892095815899</v>
       </c>
     </row>
-    <row r="554" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>235</v>
       </c>
@@ -50485,7 +50482,7 @@
         <v>1.41020364272224</v>
       </c>
     </row>
-    <row r="555" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>236</v>
       </c>
@@ -50520,7 +50517,7 @@
         <v>-0.79127374152281704</v>
       </c>
     </row>
-    <row r="556" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>237</v>
       </c>
@@ -50558,7 +50555,7 @@
         <v>-0.387632180192581</v>
       </c>
     </row>
-    <row r="557" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>238</v>
       </c>
@@ -50596,7 +50593,7 @@
         <v>0.85672544120123595</v>
       </c>
     </row>
-    <row r="558" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>239</v>
       </c>
@@ -50634,7 +50631,7 @@
         <v>-0.53278005477193902</v>
       </c>
     </row>
-    <row r="559" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>240</v>
       </c>
@@ -50672,7 +50669,7 @@
         <v>-0.78087691342794696</v>
       </c>
     </row>
-    <row r="560" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>241</v>
       </c>
@@ -50707,7 +50704,7 @@
         <v>1.6417099886473E-2</v>
       </c>
     </row>
-    <row r="561" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>242</v>
       </c>
@@ -50745,7 +50742,7 @@
         <v>-0.233922211888037</v>
       </c>
     </row>
-    <row r="562" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>243</v>
       </c>
@@ -50783,7 +50780,7 @@
         <v>-0.32158174288399699</v>
       </c>
     </row>
-    <row r="563" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>244</v>
       </c>
@@ -50821,7 +50818,7 @@
         <v>-0.67466617936074902</v>
       </c>
     </row>
-    <row r="564" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>245</v>
       </c>
@@ -50859,7 +50856,7 @@
         <v>-0.27163619615374102</v>
       </c>
     </row>
-    <row r="565" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>246</v>
       </c>
@@ -50897,7 +50894,7 @@
         <v>-0.30180738356630399</v>
       </c>
     </row>
-    <row r="566" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>247</v>
       </c>
@@ -50935,7 +50932,7 @@
         <v>-0.88341817875577999</v>
       </c>
     </row>
-    <row r="567" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>248</v>
       </c>
@@ -50973,7 +50970,7 @@
         <v>3.5470576052795799</v>
       </c>
     </row>
-    <row r="568" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>249</v>
       </c>
@@ -51011,7 +51008,7 @@
         <v>0.34931945829671301</v>
       </c>
     </row>
-    <row r="569" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>250</v>
       </c>
@@ -51049,7 +51046,7 @@
         <v>-0.61758555452617003</v>
       </c>
     </row>
-    <row r="570" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>251</v>
       </c>
@@ -51087,7 +51084,7 @@
         <v>-0.43655843005079198</v>
       </c>
     </row>
-    <row r="571" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>252</v>
       </c>
@@ -51125,7 +51122,7 @@
         <v>-0.41739564885632602</v>
       </c>
     </row>
-    <row r="572" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>253</v>
       </c>
@@ -51163,7 +51160,7 @@
         <v>-0.103452212266142</v>
       </c>
     </row>
-    <row r="573" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>254</v>
       </c>
@@ -51201,7 +51198,7 @@
         <v>-0.54623477348294602</v>
       </c>
     </row>
-    <row r="574" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>255</v>
       </c>
@@ -51239,7 +51236,7 @@
         <v>-0.918074272405346</v>
       </c>
     </row>
-    <row r="575" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>256</v>
       </c>
@@ -51274,7 +51271,7 @@
         <v>-0.20089699323374499</v>
       </c>
     </row>
-    <row r="576" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>257</v>
       </c>
@@ -51309,7 +51306,7 @@
         <v>-0.22046749317702899</v>
       </c>
     </row>
-    <row r="577" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>258</v>
       </c>
@@ -51347,7 +51344,7 @@
         <v>-0.57049403903764195</v>
       </c>
     </row>
-    <row r="578" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>259</v>
       </c>
@@ -51385,7 +51382,7 @@
         <v>1.92821031309604</v>
       </c>
     </row>
-    <row r="579" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>260</v>
       </c>
@@ -51423,7 +51420,7 @@
         <v>0.47673156730246902</v>
       </c>
     </row>
-    <row r="580" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>261</v>
       </c>
@@ -51509,7 +51506,7 @@
         <v>0.55902656602451195</v>
       </c>
     </row>
-    <row r="581" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>262</v>
       </c>
@@ -51595,7 +51592,7 @@
         <v>-4.7721782135303203E-2</v>
       </c>
     </row>
-    <row r="582" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>263</v>
       </c>
@@ -51681,7 +51678,7 @@
         <v>-4.7721782135303203E-2</v>
       </c>
     </row>
-    <row r="583" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>264</v>
       </c>
@@ -51764,7 +51761,7 @@
         <v>-1.26121846389297</v>
       </c>
     </row>
-    <row r="584" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>265</v>
       </c>
@@ -51844,7 +51841,7 @@
         <v>0.86240073282343999</v>
       </c>
     </row>
-    <row r="585" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>266</v>
       </c>
@@ -51894,7 +51891,7 @@
         <v>0.95656519191647504</v>
       </c>
     </row>
-    <row r="586" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>267</v>
       </c>
@@ -51953,7 +51950,7 @@
         <v>-0.35109594893423102</v>
       </c>
     </row>
-    <row r="587" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>268</v>
       </c>
@@ -52036,7 +52033,7 @@
         <v>0.86240073282343999</v>
       </c>
     </row>
-    <row r="588" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>269</v>
       </c>
@@ -52122,7 +52119,7 @@
         <v>-1.5645926379728801</v>
       </c>
     </row>
-    <row r="589" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>270</v>
       </c>
@@ -52208,7 +52205,7 @@
         <v>0.55902656602451195</v>
       </c>
     </row>
-    <row r="590" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>271</v>
       </c>
@@ -52294,7 +52291,7 @@
         <v>0.25565239194460398</v>
       </c>
     </row>
-    <row r="591" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>272</v>
       </c>
@@ -52380,7 +52377,7 @@
         <v>0.86240073282343999</v>
       </c>
     </row>
-    <row r="592" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>273</v>
       </c>
@@ -52466,7 +52463,7 @@
         <v>2.07589742186209</v>
       </c>
     </row>
-    <row r="593" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>274</v>
       </c>
@@ -52540,7 +52537,7 @@
         <v>-0.227032879716041</v>
       </c>
     </row>
-    <row r="594" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>275</v>
       </c>
@@ -52626,7 +52623,7 @@
         <v>1.4691490809832599</v>
       </c>
     </row>
-    <row r="595" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>276</v>
       </c>
@@ -52712,7 +52709,7 @@
         <v>0.25565239194460398</v>
       </c>
     </row>
-    <row r="596" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>277</v>
       </c>
@@ -52789,7 +52786,7 @@
         <v>-0.95784429709404595</v>
       </c>
     </row>
-    <row r="597" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>278</v>
       </c>
@@ -52875,7 +52872,7 @@
         <v>0.25565239194460398</v>
       </c>
     </row>
-    <row r="598" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>279</v>
       </c>
@@ -52961,7 +52958,7 @@
         <v>1.77252324778218</v>
       </c>
     </row>
-    <row r="599" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>280</v>
       </c>
@@ -53047,7 +53044,7 @@
         <v>0.86240073282343999</v>
       </c>
     </row>
-    <row r="600" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>281</v>
       </c>
@@ -53133,7 +53130,7 @@
         <v>0.55902656602451195</v>
       </c>
     </row>
-    <row r="601" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>282</v>
       </c>
@@ -53216,7 +53213,7 @@
         <v>-0.95784429709404595</v>
       </c>
     </row>
-    <row r="602" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>283</v>
       </c>
@@ -53293,7 +53290,7 @@
         <v>-0.45974155101554198</v>
       </c>
     </row>
-    <row r="603" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>284</v>
       </c>
@@ -53379,7 +53376,7 @@
         <v>0.55902656602451195</v>
       </c>
     </row>
-    <row r="604" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>285</v>
       </c>
@@ -53453,7 +53450,7 @@
         <v>1.4691490809832599</v>
       </c>
     </row>
-    <row r="605" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>286</v>
       </c>
@@ -53539,7 +53536,7 @@
         <v>0.25565239194460398</v>
       </c>
     </row>
-    <row r="606" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>287</v>
       </c>
@@ -53622,7 +53619,7 @@
         <v>-0.35109594893423102</v>
       </c>
     </row>
-    <row r="607" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>288</v>
       </c>
@@ -53708,7 +53705,7 @@
         <v>1.77252324778218</v>
       </c>
     </row>
-    <row r="608" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>289</v>
       </c>
@@ -53794,7 +53791,7 @@
         <v>-4.7721782135303203E-2</v>
       </c>
     </row>
-    <row r="609" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>290</v>
       </c>
@@ -53852,24 +53849,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.140625" customWidth="1"/>
-    <col min="2" max="2" width="52.85546875" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" customWidth="1"/>
+    <col min="2" max="2" width="52.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>291</v>
       </c>
@@ -53877,7 +53873,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -53885,7 +53881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -53893,7 +53889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -53901,7 +53897,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -53909,7 +53905,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -53917,7 +53913,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -53925,7 +53921,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -53933,7 +53929,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -53941,7 +53937,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -53949,7 +53945,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -53957,7 +53953,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -53965,7 +53961,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -53973,7 +53969,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -53981,7 +53977,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -53989,7 +53985,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -53997,7 +53993,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -54005,7 +54001,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -54013,7 +54009,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -54021,7 +54017,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -54029,7 +54025,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -54037,7 +54033,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -54045,7 +54041,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -54053,7 +54049,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -54061,7 +54057,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -54069,7 +54065,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -54077,7 +54073,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -54085,7 +54081,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -54093,7 +54089,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -54101,7 +54097,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -54109,7 +54105,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -54117,7 +54113,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -54125,7 +54121,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -54133,7 +54129,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -54141,7 +54137,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -54149,7 +54145,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -54157,7 +54153,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -54165,7 +54161,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -54173,7 +54169,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -54181,7 +54177,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -54189,7 +54185,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
